--- a/templates/Plasmodium/NOMADS_Library_Rapid_Plasmo_Worksheet.xlsx
+++ b/templates/Plasmodium/NOMADS_Library_Rapid_Plasmo_Worksheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\templates\Plasmodium\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitrepos\warehouse\templates\Plasmodium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FEEF231-7159-478B-8F61-B21183CB1CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD0BC8D-F7FE-441B-A9CE-0C879D41DE76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="34080" windowHeight="22200" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2394,58 +2394,46 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2466,32 +2454,44 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -3335,7 +3335,7 @@
   <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41:D41"/>
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3344,171 +3344,171 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="88" t="s">
         <v>373</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="93" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="93"/>
-      <c r="J2" s="113" t="s">
+      <c r="H2" s="91"/>
+      <c r="J2" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="113"/>
+      <c r="K2" s="92"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
       <c r="G3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="115" t="s">
+      <c r="J3" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="115"/>
+      <c r="K3" s="94"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="86" t="s">
+      <c r="A4" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
       <c r="G4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="116" t="s">
+      <c r="J4" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="116"/>
+      <c r="K4" s="95"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="102" t="s">
+      <c r="A5" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="102"/>
-      <c r="C5" s="100" t="str">
+      <c r="B5" s="96"/>
+      <c r="C5" s="97" t="str">
         <f>IF(OR(ISBLANK(C3),ISBLANK(C4)),"",CONCATENATE("SL",VLOOKUP(C3,reference!H3:I9,2,FALSE()),C4))</f>
         <v/>
       </c>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
       <c r="G5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="101" t="s">
+      <c r="J5" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="101"/>
+      <c r="K5" s="98"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="102" t="s">
+      <c r="A6" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="102"/>
-      <c r="C6" s="103" t="str">
+      <c r="B6" s="96"/>
+      <c r="C6" s="99" t="str">
         <f>IF(OR(ISBLANK(C2),ISBLANK(C3),ISBLANK(C4)),"",CONCATENATE(C2,"_SeqLib_",C5))</f>
         <v/>
       </c>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
       <c r="G6" s="4"/>
-      <c r="J6" s="101"/>
-      <c r="K6" s="101"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="109" t="s">
+      <c r="A7" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="109"/>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
       <c r="G7" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="109" t="s">
+      <c r="A8" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="109"/>
-      <c r="C8" s="110"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="110"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
       <c r="G8" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="105" t="s">
+      <c r="A9" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="105"/>
-      <c r="C9" s="106" t="str">
+      <c r="B9" s="101"/>
+      <c r="C9" s="102" t="str">
         <f>IF(OR(LEN(C7)=0, LEN(C8)=0),"",CONCATENATE(C7,"_Batch",C8))</f>
         <v/>
       </c>
-      <c r="D9" s="106"/>
-      <c r="E9" s="106"/>
-      <c r="F9" s="106"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="102"/>
       <c r="G9" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="105" t="s">
+      <c r="A10" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="105"/>
-      <c r="C10" s="106" t="str">
+      <c r="B10" s="101"/>
+      <c r="C10" s="102" t="str">
         <f>IF(OR(LEN(C6)=0,LEN(exp_summary)=0),"",CONCATENATE(C6,"_",exp_summary))</f>
         <v/>
       </c>
-      <c r="D10" s="106"/>
-      <c r="E10" s="106"/>
-      <c r="F10" s="106"/>
-      <c r="G10" s="106"/>
-      <c r="H10" s="106"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="102"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="86" t="s">
+      <c r="A11" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="86"/>
+      <c r="B11" s="89"/>
       <c r="C11" s="26"/>
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
@@ -3516,32 +3516,32 @@
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="86" t="s">
+      <c r="A12" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="86"/>
-      <c r="C12" s="107"/>
-      <c r="D12" s="107"/>
-      <c r="E12" s="107"/>
-      <c r="F12" s="107"/>
-      <c r="G12" s="107"/>
-      <c r="H12" s="107"/>
-      <c r="I12" s="107"/>
-      <c r="J12" s="107"/>
-      <c r="K12" s="107"/>
+      <c r="B12" s="89"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="103"/>
+      <c r="I12" s="103"/>
+      <c r="J12" s="103"/>
+      <c r="K12" s="103"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="107"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="107"/>
-      <c r="H13" s="107"/>
-      <c r="I13" s="107"/>
-      <c r="J13" s="107"/>
-      <c r="K13" s="107"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="103"/>
+      <c r="K13" s="103"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="5"/>
@@ -3564,11 +3564,11 @@
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="108" t="s">
+      <c r="I16" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="J16" s="108"/>
-      <c r="K16" s="108"/>
+      <c r="J16" s="104"/>
+      <c r="K16" s="104"/>
     </row>
     <row r="17" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
@@ -3579,10 +3579,10 @@
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="G17" s="8"/>
-      <c r="I17" s="90" t="s">
+      <c r="I17" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="J17" s="90"/>
+      <c r="J17" s="105"/>
       <c r="K17" s="9" t="s">
         <v>26</v>
       </c>
@@ -3594,10 +3594,10 @@
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="G18" s="8"/>
-      <c r="I18" s="104">
+      <c r="I18" s="100">
         <v>30</v>
       </c>
-      <c r="J18" s="104"/>
+      <c r="J18" s="100"/>
       <c r="K18" s="2" t="s">
         <v>27</v>
       </c>
@@ -3609,10 +3609,10 @@
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="G19" s="8"/>
-      <c r="I19" s="104">
+      <c r="I19" s="100">
         <v>30</v>
       </c>
-      <c r="J19" s="104"/>
+      <c r="J19" s="100"/>
       <c r="K19" s="7">
         <v>2</v>
       </c>
@@ -3624,10 +3624,10 @@
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="G20" s="8"/>
-      <c r="I20" s="104">
+      <c r="I20" s="100">
         <v>80</v>
       </c>
-      <c r="J20" s="104"/>
+      <c r="J20" s="100"/>
       <c r="K20" s="2">
         <v>2</v>
       </c>
@@ -3639,10 +3639,10 @@
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="G21" s="8"/>
-      <c r="I21" s="104">
+      <c r="I21" s="100">
         <v>8</v>
       </c>
-      <c r="J21" s="104"/>
+      <c r="J21" s="100"/>
       <c r="K21" s="2" t="s">
         <v>27</v>
       </c>
@@ -3665,20 +3665,20 @@
       <c r="G23" s="25"/>
     </row>
     <row r="24" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="93" t="s">
+      <c r="A24" s="91" t="s">
         <v>393</v>
       </c>
-      <c r="B24" s="93"/>
-      <c r="C24" s="93"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="93"/>
-      <c r="G24" s="93"/>
-      <c r="H24" s="93"/>
-      <c r="I24" s="93"/>
-      <c r="J24" s="93"/>
-      <c r="K24" s="93"/>
-      <c r="L24" s="93"/>
+      <c r="B24" s="91"/>
+      <c r="C24" s="91"/>
+      <c r="D24" s="91"/>
+      <c r="E24" s="91"/>
+      <c r="F24" s="91"/>
+      <c r="G24" s="91"/>
+      <c r="H24" s="91"/>
+      <c r="I24" s="91"/>
+      <c r="J24" s="91"/>
+      <c r="K24" s="91"/>
+      <c r="L24" s="91"/>
     </row>
     <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
@@ -3701,18 +3701,18 @@
       <c r="C26" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="94" t="s">
+      <c r="D26" s="108" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="94"/>
-      <c r="F26" s="97" t="s">
+      <c r="E26" s="108"/>
+      <c r="F26" s="111" t="s">
         <v>390</v>
       </c>
-      <c r="G26" s="97"/>
-      <c r="H26" s="97" t="s">
+      <c r="G26" s="111"/>
+      <c r="H26" s="111" t="s">
         <v>396</v>
       </c>
-      <c r="I26" s="97"/>
+      <c r="I26" s="111"/>
     </row>
     <row r="27" spans="1:17" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
@@ -3723,21 +3723,21 @@
       <c r="C27" s="31">
         <v>10</v>
       </c>
-      <c r="D27" s="95">
+      <c r="D27" s="109">
         <f>SUM(B27*C27)</f>
         <v>0</v>
       </c>
-      <c r="E27" s="95"/>
-      <c r="F27" s="96" t="str">
+      <c r="E27" s="109"/>
+      <c r="F27" s="110" t="str">
         <f>IFERROR(IF(SUM(flowcell_targetmass/DNAconc_pooled)&gt;flowcell_maxvol-1,flowcell_maxvol-1, SUM(flowcell_targetmass/DNAconc_pooled)),"")</f>
         <v/>
       </c>
-      <c r="G27" s="96"/>
-      <c r="H27" s="96" t="str">
+      <c r="G27" s="110"/>
+      <c r="H27" s="110" t="str">
         <f>IFERROR(SUM(10-F27),"")</f>
         <v/>
       </c>
-      <c r="I27" s="96"/>
+      <c r="I27" s="110"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
@@ -3774,48 +3774,48 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="90" t="s">
+      <c r="A35" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="90"/>
-      <c r="C35" s="90"/>
-      <c r="D35" s="98" t="s">
+      <c r="B35" s="105"/>
+      <c r="C35" s="105"/>
+      <c r="D35" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="E35" s="98"/>
+      <c r="E35" s="112"/>
     </row>
     <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="94" t="s">
+      <c r="A36" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="94"/>
-      <c r="C36" s="94"/>
-      <c r="D36" s="99">
+      <c r="B36" s="108"/>
+      <c r="C36" s="108"/>
+      <c r="D36" s="113">
         <v>11</v>
       </c>
-      <c r="E36" s="99"/>
+      <c r="E36" s="113"/>
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="91" t="s">
+      <c r="A37" s="106" t="s">
         <v>398</v>
       </c>
-      <c r="B37" s="91"/>
-      <c r="C37" s="91"/>
-      <c r="D37" s="92">
+      <c r="B37" s="106"/>
+      <c r="C37" s="106"/>
+      <c r="D37" s="107">
         <v>37.5</v>
       </c>
-      <c r="E37" s="92"/>
+      <c r="E37" s="107"/>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="91" t="s">
+      <c r="A38" s="106" t="s">
         <v>399</v>
       </c>
-      <c r="B38" s="91"/>
-      <c r="C38" s="91"/>
-      <c r="D38" s="92">
+      <c r="B38" s="106"/>
+      <c r="C38" s="106"/>
+      <c r="D38" s="107">
         <v>25.5</v>
       </c>
-      <c r="E38" s="92"/>
+      <c r="E38" s="107"/>
       <c r="F38" s="4" t="s">
         <v>35</v>
       </c>
@@ -3827,82 +3827,128 @@
       <c r="C40" s="4"/>
     </row>
     <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="86" t="s">
+      <c r="A41" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B41" s="86"/>
-      <c r="C41" s="88"/>
-      <c r="D41" s="88"/>
+      <c r="B41" s="89"/>
+      <c r="C41" s="115"/>
+      <c r="D41" s="115"/>
       <c r="E41" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="86" t="s">
+      <c r="A42" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="B42" s="86"/>
-      <c r="C42" s="87"/>
-      <c r="D42" s="87"/>
+      <c r="B42" s="89"/>
+      <c r="C42" s="114"/>
+      <c r="D42" s="114"/>
     </row>
     <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="86" t="s">
+      <c r="A43" s="89" t="s">
         <v>40</v>
       </c>
-      <c r="B43" s="86"/>
-      <c r="C43" s="87"/>
-      <c r="D43" s="87"/>
+      <c r="B43" s="89"/>
+      <c r="C43" s="114"/>
+      <c r="D43" s="114"/>
     </row>
     <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="86" t="s">
+      <c r="A44" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="86"/>
-      <c r="C44" s="89" t="str">
+      <c r="B44" s="89"/>
+      <c r="C44" s="116" t="str">
         <f>IF(flowcell_status="New",0,"")</f>
         <v/>
       </c>
-      <c r="D44" s="89"/>
+      <c r="D44" s="116"/>
       <c r="E44" s="8" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="86" t="s">
+      <c r="A45" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="86"/>
-      <c r="C45" s="88"/>
-      <c r="D45" s="88"/>
+      <c r="B45" s="89"/>
+      <c r="C45" s="115"/>
+      <c r="D45" s="115"/>
       <c r="E45" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="86" t="s">
+      <c r="A46" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="86"/>
-      <c r="C46" s="87"/>
-      <c r="D46" s="87"/>
+      <c r="B46" s="89"/>
+      <c r="C46" s="114"/>
+      <c r="D46" s="114"/>
       <c r="E46" s="8" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="86" t="s">
+      <c r="A47" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="86"/>
-      <c r="C47" s="87"/>
-      <c r="D47" s="87"/>
+      <c r="B47" s="89"/>
+      <c r="C47" s="114"/>
+      <c r="D47" s="114"/>
       <c r="E47" s="8" t="s">
         <v>48</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="62">
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="A24:L24"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="J5:K6"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:K13"/>
+    <mergeCell ref="I16:K16"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:F7"/>
     <mergeCell ref="A8:B8"/>
@@ -3919,52 +3965,6 @@
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="J5:K6"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:K13"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="A24:L24"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:D45"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:C4 C7:C8 C11:C12 B27:C27 C41:C43 C45:C47">
     <cfRule type="expression" dxfId="6" priority="7">
@@ -12210,9 +12210,7 @@
   </sheetPr>
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12645,7 +12643,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="XAJEfl/fMWsRVHvgk+FWJqIpzpTZj0cfsa5tnX61QDmOAkNCaevskOhYzzx78yqZyb8IoUCjTXL/rN2ecJ815w==" saltValue="ckH/95JzUMCShg6iv4fF3Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <tableParts count="1">
@@ -15962,7 +15960,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Zh/PBmk4K+bjfvgTwFQ5OPaNNLE7eOeqtnG5HBNRkSQcSq3Hg71LWo5kbgR24m9B80wwEfKC0WZyOcE0Nogk8g==" saltValue="jqyFe+wxf9+KW2bqzJoDGw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <tableParts count="1">
